--- a/0 - References/Graph Data Reference.xlsx
+++ b/0 - References/Graph Data Reference.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SaiSMAPersonal\SaiSRIWork\Education\VSOnlineDemo\GraphSamples\GraphSamples\0 - References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SaiSMAPersonal\SaiSRIWork\Education\GraphSamples\0 - References\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52236406-E0D0-40AA-84AF-5312CE1708E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Problems!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="463">
   <si>
     <t>Generate</t>
   </si>
@@ -1051,13 +1052,385 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>1. Graph and its representations</t>
+  </si>
+  <si>
+    <t>2. Breadth First Traversal for a Graph</t>
+  </si>
+  <si>
+    <t>3. Depth First Traversal for a Graph</t>
+  </si>
+  <si>
+    <t>4. Applications of Depth First Search</t>
+  </si>
+  <si>
+    <t>5. Applications of Breadth First Traversal</t>
+  </si>
+  <si>
+    <t>6. Longest Path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>7. Find Mother Vertex in a Graph</t>
+  </si>
+  <si>
+    <t>8. Transitive Closure of a Graph using DFS</t>
+  </si>
+  <si>
+    <t>9. Find K cores of an undirected Graph</t>
+  </si>
+  <si>
+    <t>10. Iterative Depth First Search</t>
+  </si>
+  <si>
+    <t>11. Count the number of nodes at given level in a tree using BFS</t>
+  </si>
+  <si>
+    <t>12. Count all possible paths between two vertices</t>
+  </si>
+  <si>
+    <t>13. Minimum initial vertices to traverse whole matrix with given conditions</t>
+  </si>
+  <si>
+    <t>14. Shortest path to reach one prime to other by changing single digit at a time</t>
+  </si>
+  <si>
+    <t>15. Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>16. Magical Indices in an array</t>
+  </si>
+  <si>
+    <t>17. Count number of trees in a forest</t>
+  </si>
+  <si>
+    <t>18. BFS using vectors &amp; queue as per the algorithm of CLRS</t>
+  </si>
+  <si>
+    <t>19. Level of Each node in a Tree from source node</t>
+  </si>
+  <si>
+    <t>20. Construct binary palindrome by repeated appending and trimming</t>
+  </si>
+  <si>
+    <t>21. Iterative Deepening Search(IDS) or Iterative Deepening Depth First Search(IDDFS)</t>
+  </si>
+  <si>
+    <t>1. Detect Cycle in a Directed Graph</t>
+  </si>
+  <si>
+    <t>2. Detect Cycle in a an Undirected Graph</t>
+  </si>
+  <si>
+    <t>3. Detect cycle in an undirected graph</t>
+  </si>
+  <si>
+    <t>4. Detect cycle in a direct graph using colors</t>
+  </si>
+  <si>
+    <t>5. Assign directions to edges so that the directed graph remains acyclic</t>
+  </si>
+  <si>
+    <t>6. Detect a negative cycle in a Graph | (Bellman Ford)</t>
+  </si>
+  <si>
+    <t>1. Topological Sorting</t>
+  </si>
+  <si>
+    <t>2. All topological sorts of a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>3. Kahn’s Algorithm for Topological Sorting</t>
+  </si>
+  <si>
+    <t>1. Prim’s Minimum Spanning Tree (MST))</t>
+  </si>
+  <si>
+    <t>2. Applications of Minimum Spanning Tree Problem</t>
+  </si>
+  <si>
+    <t>3. Prim’s MST for Adjacency List Representation</t>
+  </si>
+  <si>
+    <t>4. Kruskal’s Minimum Spanning Tree Algorithm</t>
+  </si>
+  <si>
+    <t>5. Boruvka’s algorithm for Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>6. Minimum cost to connect all cities</t>
+  </si>
+  <si>
+    <t>7. Steiner Tree</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>1. Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>2. Tug of War</t>
+  </si>
+  <si>
+    <t>3. The Knight-Tour Problem</t>
+  </si>
+  <si>
+    <t>4. Rat in a Maze</t>
+  </si>
+  <si>
+    <t>5. n-Queen’s Problem</t>
+  </si>
+  <si>
+    <t>6. m Coloring Problem</t>
+  </si>
+  <si>
+    <t>7. Hamiltonian Cycle</t>
+  </si>
+  <si>
+    <t>1. Dijkstra’s shortest path algorithm</t>
+  </si>
+  <si>
+    <t>2. Dijkstra’s Algorithm for Adjacency List Representation</t>
+  </si>
+  <si>
+    <t>3. Bellman–Ford Algorithm</t>
+  </si>
+  <si>
+    <t>4. Floyd Warshall Algorithm</t>
+  </si>
+  <si>
+    <t>5. Johnson’s algorithm for All-pairs shortest paths</t>
+  </si>
+  <si>
+    <t>6. Shortest Path in Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Some interesting shortest path questions, </t>
+  </si>
+  <si>
+    <t>8. Shortest path with exactly k edges in a directed and weighted graph</t>
+  </si>
+  <si>
+    <t>9. Dial’s Algorithm</t>
+  </si>
+  <si>
+    <t>10. Printing paths in Dijsktra’s Algorithm</t>
+  </si>
+  <si>
+    <t>11. Shortest path of a weighted graph where weight is 1 or 2</t>
+  </si>
+  <si>
+    <t>1. Find if there is a path between two vertices in a directed graph</t>
+  </si>
+  <si>
+    <t>2. Connectivity in a directed graph</t>
+  </si>
+  <si>
+    <t>3. Articulation Points (or Cut Vertices) in a Graph</t>
+  </si>
+  <si>
+    <t>4. Biconnected graph</t>
+  </si>
+  <si>
+    <t>5. Bridges in a graph</t>
+  </si>
+  <si>
+    <t>6. Eulerian path and circuit</t>
+  </si>
+  <si>
+    <t>7. Fleury’s Algorithm for printing Eulerian Path or Circuit</t>
+  </si>
+  <si>
+    <t>8. Strongly Connected Components</t>
+  </si>
+  <si>
+    <t>9. Transitive closure of a graph</t>
+  </si>
+  <si>
+    <t>10. Find the number of islands</t>
+  </si>
+  <si>
+    <t>11. Count all possible walks from a source to a destination with exactly k edges</t>
+  </si>
+  <si>
+    <t>12. Euler Circuit in a Directed Graph</t>
+  </si>
+  <si>
+    <t>13. Biconnected Components</t>
+  </si>
+  <si>
+    <t>14. Count the number of non-reachable nodes</t>
+  </si>
+  <si>
+    <t>15. Find the Degree of a Particular vertex in a Graph</t>
+  </si>
+  <si>
+    <t>16. Check if a given graph is tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Karger’s algorithm for Minimum Cut </t>
+  </si>
+  <si>
+    <t>18. Eulerian Path in undirected graph</t>
+  </si>
+  <si>
+    <t>19. Find if there is a path of more than k length</t>
+  </si>
+  <si>
+    <t>20. Length of shortest chain to reach the target word</t>
+  </si>
+  <si>
+    <t>21. Print all paths from a given source to destination</t>
+  </si>
+  <si>
+    <t>22. Find minimum cost to reach destination using train</t>
+  </si>
+  <si>
+    <t>23. Tarjan’s Algorithm to find strongly connected Components</t>
+  </si>
+  <si>
+    <t>1. Graph Coloring (Introduction and Applications)</t>
+  </si>
+  <si>
+    <t>2. Greedy Algorithm for Graph Coloring</t>
+  </si>
+  <si>
+    <t>3. Travelling Salesman Problem (Naive and Dynamic Programming)</t>
+  </si>
+  <si>
+    <t>4. Travelling Salesman Problem (Approximate using MST)</t>
+  </si>
+  <si>
+    <t>5. Hamiltonian Cycle</t>
+  </si>
+  <si>
+    <t>6. Vertex Cover Problem | Set 1 (Introduction and Approximate Algorithm)</t>
+  </si>
+  <si>
+    <t>7. K Centers Problem | Set 1 (Greedy Approximate Algorithm)</t>
+  </si>
+  <si>
+    <t>1. Ford-Fulkerson Algorithm for Maximum Flow Problem</t>
+  </si>
+  <si>
+    <t>2. Find maximum number of edge disjoint paths between two vertices</t>
+  </si>
+  <si>
+    <t>3. Find minimum s-t cut in a flow network</t>
+  </si>
+  <si>
+    <t>4. Maximum Bipartite Matching</t>
+  </si>
+  <si>
+    <t>5. Channel Assignment Problem</t>
+  </si>
+  <si>
+    <t>6. Push Relabel- Set 1-Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Push Relabel- Set 2- Implementation </t>
+  </si>
+  <si>
+    <t>8. Karger’s Algorithm- Set 1- Introduction and Implementation</t>
+  </si>
+  <si>
+    <t>9. Karger’s Algorithm- Set 2 – Analysis and Applications</t>
+  </si>
+  <si>
+    <t>STL Implementation of Algorithms</t>
+  </si>
+  <si>
+    <t>1. Kruskal’s Minimum Spanning Tree using STL in C++</t>
+  </si>
+  <si>
+    <t>2. Prim’s Algorithm using Priority Queue STL</t>
+  </si>
+  <si>
+    <t>3. Dijkstra’s Shortest Path Algorithm using STL</t>
+  </si>
+  <si>
+    <t>4. Dijkstra’s Shortest Path Algorithm using set in STL</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>1. Number of triangles in an undirected Graph</t>
+  </si>
+  <si>
+    <t>2. Number of triangles in directed and undirected Graph</t>
+  </si>
+  <si>
+    <t>3. Check whether a given graph is Bipartite or not</t>
+  </si>
+  <si>
+    <t>4. Snake and Ladder Problem</t>
+  </si>
+  <si>
+    <t>5. Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>6. Boggle (Find all possible words in a board of characters)</t>
+  </si>
+  <si>
+    <t>7. Hopcroft Karp Algorithm for Maximum Matching-Introduction</t>
+  </si>
+  <si>
+    <t>8. Hopcroft Karp Algorithm for Maximum Matching-Implementation</t>
+  </si>
+  <si>
+    <t>9. Minimum Time to rot all oranges</t>
+  </si>
+  <si>
+    <t>10. Construct binary palindrome by repeated appending and trimming</t>
+  </si>
+  <si>
+    <t>11. Find same contents in a list of contacts</t>
+  </si>
+  <si>
+    <t>12. Hypercube Graph</t>
+  </si>
+  <si>
+    <t>13. Check for star graph</t>
+  </si>
+  <si>
+    <t>14. Optimal read list for a given number of days</t>
+  </si>
+  <si>
+    <t>15. Print all jumping numbers smaller than or equal to a given value</t>
+  </si>
+  <si>
+    <t>Introduction, DFS and BFS</t>
+  </si>
+  <si>
+    <t>Graph Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Spanning Tree </t>
+  </si>
+  <si>
+    <t>Shortest Paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectivity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Problems </t>
+  </si>
+  <si>
+    <t>Maximum Flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1470,28 @@
       <color rgb="FF0088CC"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1186,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,9 +1631,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,13 +1647,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B23546-4884-452B-B623-7EFDC7CDDB0D}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -1567,37 +1974,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1615,7 +2022,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1671,17 +2078,17 @@
       <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="12"/>
@@ -1692,7 +2099,7 @@
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12"/>
@@ -1713,7 +2120,7 @@
       <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1740,7 +2147,7 @@
       <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="12"/>
@@ -1757,7 +2164,7 @@
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="12"/>
@@ -1774,7 +2181,7 @@
       <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="12"/>
@@ -1810,15 +2217,15 @@
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -1844,7 +2251,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="16"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="12"/>
@@ -1859,7 +2266,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A15" s="16"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="12"/>
@@ -1892,10 +2299,10 @@
       <c r="A17" s="16">
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -1920,13 +2327,15 @@
       <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
         <v>48</v>
@@ -1941,11 +2350,13 @@
       <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
         <v>51</v>
@@ -2015,13 +2426,13 @@
       <c r="B23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2068,7 +2479,7 @@
       <c r="B26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="12"/>
@@ -2325,7 +2736,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="30" t="s">
         <v>76</v>
       </c>
       <c r="I40" s="12"/>
@@ -2344,7 +2755,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="30" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="12"/>
@@ -2458,7 +2869,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="12"/>
@@ -2565,7 +2976,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D55" s="12"/>
@@ -2610,102 +3021,102 @@
       <c r="K57" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="31" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="31" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2754,16 +3165,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -2952,16 +3363,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3899,18 +4310,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5818DA60-31B0-41D4-BAE2-C8D501834581}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.73046875" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="3.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.9296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.59765625" style="8" customWidth="1"/>
     <col min="5" max="5" width="79.53125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="76.73046875" style="8"/>
   </cols>
@@ -3919,7 +4330,9 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>339</v>
+      </c>
       <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3974,7 +4387,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
         <v>90</v>
@@ -3987,7 +4402,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>90</v>
@@ -4000,7 +4417,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="16"/>
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
       <c r="B7" s="16"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -4011,7 +4430,9 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="16"/>
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
       <c r="B8" s="16"/>
       <c r="C8" s="12" t="s">
         <v>90</v>
@@ -4024,7 +4445,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
         <v>90</v>
@@ -4037,7 +4460,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18" t="s">
         <v>90</v>
@@ -4050,7 +4475,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="12" t="s">
         <v>90</v>
@@ -4061,7 +4488,9 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="16"/>
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="12" t="s">
         <v>90</v>
@@ -4072,7 +4501,9 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="16"/>
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
         <v>90</v>
@@ -4085,7 +4516,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
       <c r="B14" s="16"/>
       <c r="C14" s="12" t="s">
         <v>90</v>
@@ -4098,7 +4531,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
@@ -4111,7 +4546,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="16"/>
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="12" t="s">
         <v>90</v>
@@ -4124,7 +4561,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
       <c r="B17" s="16"/>
       <c r="C17" s="12" t="s">
         <v>90</v>
@@ -4137,7 +4576,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A18" s="16"/>
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
       <c r="B18" s="16"/>
       <c r="C18" s="12" t="s">
         <v>90</v>
@@ -4147,19 +4588,23 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A20" s="16"/>
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
       <c r="B20" s="16"/>
       <c r="C20" s="12" t="s">
         <v>90</v>
@@ -4170,7 +4615,9 @@
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A21" s="16"/>
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
         <v>90</v>
@@ -4181,7 +4628,9 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
       <c r="B22" s="16"/>
       <c r="C22" s="12" t="s">
         <v>91</v>
@@ -4194,7 +4643,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A23" s="16"/>
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
         <v>91</v>
@@ -4207,7 +4658,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A24" s="16"/>
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
       <c r="B24" s="16"/>
       <c r="C24" s="12" t="s">
         <v>91</v>
@@ -4220,7 +4673,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
         <v>91</v>
@@ -4231,7 +4686,9 @@
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A26" s="16"/>
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
       <c r="B26" s="16"/>
       <c r="C26" s="12" t="s">
         <v>91</v>
@@ -4244,7 +4701,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A27" s="16"/>
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
         <v>91</v>
@@ -4255,7 +4714,9 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A28" s="16"/>
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
       <c r="B28" s="16"/>
       <c r="C28" s="12" t="s">
         <v>91</v>
@@ -4268,7 +4729,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A29" s="16"/>
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
         <v>62</v>
@@ -4281,7 +4744,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
       <c r="B30" s="16"/>
       <c r="C30" s="12" t="s">
         <v>62</v>
@@ -4294,7 +4759,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
       <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
         <v>62</v>
@@ -4305,7 +4772,9 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A32" s="16"/>
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
       <c r="B32" s="16"/>
       <c r="C32" s="12" t="s">
         <v>62</v>
@@ -4316,7 +4785,9 @@
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A33" s="16"/>
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
       <c r="B33" s="16"/>
       <c r="C33" s="12" t="s">
         <v>62</v>
@@ -4327,7 +4798,9 @@
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A34" s="16"/>
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="12" t="s">
         <v>62</v>
@@ -4338,7 +4811,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A35" s="16"/>
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
       <c r="B35" s="16"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
@@ -4349,7 +4824,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A36" s="16"/>
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
       <c r="B36" s="16"/>
       <c r="C36" s="12" t="s">
         <v>18</v>
@@ -4362,7 +4839,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A37" s="16"/>
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
       <c r="B37" s="16"/>
       <c r="C37" s="12" t="s">
         <v>18</v>
@@ -4375,7 +4854,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.6">
-      <c r="A38" s="16"/>
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
       <c r="B38" s="16"/>
       <c r="C38" s="12" t="s">
         <v>18</v>
@@ -4388,7 +4869,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A39" s="16"/>
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
       <c r="B39" s="16"/>
       <c r="C39" s="12" t="s">
         <v>18</v>
@@ -4399,7 +4882,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A40" s="16"/>
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
       <c r="B40" s="16"/>
       <c r="C40" s="12" t="s">
         <v>18</v>
@@ -4412,7 +4897,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
       <c r="B41" s="16"/>
       <c r="C41" s="12" t="s">
         <v>18</v>
@@ -4423,7 +4910,9 @@
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A42" s="16"/>
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="12" t="s">
         <v>18</v>
@@ -4436,7 +4925,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A43" s="16"/>
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
       <c r="B43" s="16"/>
       <c r="C43" s="12" t="s">
         <v>18</v>
@@ -4449,7 +4940,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A44" s="16"/>
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
       <c r="B44" s="16"/>
       <c r="C44" s="12" t="s">
         <v>18</v>
@@ -4462,7 +4955,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A45" s="16"/>
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
       <c r="B45" s="16"/>
       <c r="C45" s="12" t="s">
         <v>18</v>
@@ -4475,7 +4970,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A46" s="16"/>
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
       <c r="B46" s="16"/>
       <c r="C46" s="12" t="s">
         <v>18</v>
@@ -4488,7 +4985,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A47" s="16"/>
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
       <c r="B47" s="16"/>
       <c r="C47" s="12" t="s">
         <v>18</v>
@@ -4501,7 +5000,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A48" s="16"/>
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
       <c r="B48" s="16"/>
       <c r="C48" s="12" t="s">
         <v>18</v>
@@ -4512,7 +5013,9 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A49" s="16"/>
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="12" t="s">
         <v>18</v>
@@ -4523,7 +5026,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A50" s="16"/>
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="12" t="s">
         <v>92</v>
@@ -4536,7 +5041,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A51" s="16"/>
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
       <c r="B51" s="16"/>
       <c r="C51" s="12" t="s">
         <v>92</v>
@@ -4549,7 +5056,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A52" s="16"/>
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
       <c r="B52" s="16"/>
       <c r="C52" s="12" t="s">
         <v>92</v>
@@ -4562,7 +5071,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A53" s="16"/>
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
       <c r="B53" s="16"/>
       <c r="C53" s="12"/>
       <c r="D53" s="9"/>
@@ -4571,7 +5082,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A54" s="16"/>
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
       <c r="B54" s="16"/>
       <c r="C54" s="12" t="s">
         <v>93</v>
@@ -4584,7 +5097,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A55" s="16"/>
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
       <c r="B55" s="16"/>
       <c r="C55" s="12" t="s">
         <v>93</v>
@@ -4595,7 +5110,9 @@
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A56" s="16"/>
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
       <c r="B56" s="16"/>
       <c r="C56" s="12" t="s">
         <v>93</v>
@@ -4608,7 +5125,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A57" s="16"/>
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
       <c r="B57" s="16"/>
       <c r="C57" s="12" t="s">
         <v>93</v>
@@ -4619,7 +5138,9 @@
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A58" s="16"/>
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
       <c r="B58" s="16"/>
       <c r="C58" s="12" t="s">
         <v>93</v>
@@ -4630,7 +5151,9 @@
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A59" s="16"/>
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
       <c r="B59" s="16"/>
       <c r="C59" s="12" t="s">
         <v>93</v>
@@ -4643,7 +5166,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A60" s="16"/>
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
       <c r="B60" s="16"/>
       <c r="C60" s="12" t="s">
         <v>93</v>
@@ -4654,7 +5179,9 @@
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A61" s="16"/>
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
       <c r="B61" s="16"/>
       <c r="C61" s="12" t="s">
         <v>329</v>
@@ -4667,7 +5194,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A62" s="16"/>
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
       <c r="B62" s="16"/>
       <c r="C62" s="12" t="s">
         <v>329</v>
@@ -4680,7 +5209,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A63" s="16"/>
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
       <c r="B63" s="16"/>
       <c r="C63" s="12" t="s">
         <v>329</v>
@@ -4693,7 +5224,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A64" s="16"/>
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
       <c r="B64" s="16"/>
       <c r="C64" s="12" t="s">
         <v>329</v>
@@ -4706,7 +5239,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A65" s="16"/>
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
       <c r="B65" s="16"/>
       <c r="C65" s="12" t="s">
         <v>329</v>
@@ -4719,7 +5254,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A66" s="16"/>
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
       <c r="B66" s="16"/>
       <c r="C66" s="12" t="s">
         <v>329</v>
@@ -4730,7 +5267,9 @@
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="16"/>
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
       <c r="B67" s="16"/>
       <c r="C67" s="12" t="s">
         <v>330</v>
@@ -4743,7 +5282,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.6">
-      <c r="A68" s="16"/>
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
       <c r="B68" s="16"/>
       <c r="C68" s="12" t="s">
         <v>330</v>
@@ -4756,7 +5297,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A69" s="16"/>
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
       <c r="B69" s="16"/>
       <c r="C69" s="12" t="s">
         <v>330</v>
@@ -4769,7 +5312,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A70" s="16"/>
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
       <c r="B70" s="16"/>
       <c r="C70" s="12" t="s">
         <v>330</v>
@@ -4782,7 +5327,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A71" s="16"/>
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
       <c r="B71" s="16"/>
       <c r="C71" s="12" t="s">
         <v>330</v>
@@ -4795,7 +5342,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A72" s="16"/>
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
       <c r="B72" s="16"/>
       <c r="C72" s="12" t="s">
         <v>330</v>
@@ -4806,7 +5355,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A73" s="16"/>
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
       <c r="B73" s="16"/>
       <c r="C73" s="12" t="s">
         <v>330</v>
@@ -4817,7 +5368,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A74" s="16"/>
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
       <c r="B74" s="16"/>
       <c r="C74" s="12" t="s">
         <v>330</v>
@@ -4828,7 +5381,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A75" s="16"/>
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
       <c r="B75" s="16"/>
       <c r="C75" s="12" t="s">
         <v>330</v>
@@ -4839,7 +5394,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A76" s="16"/>
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
       <c r="B76" s="16"/>
       <c r="C76" s="12" t="s">
         <v>330</v>
@@ -4850,7 +5407,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A77" s="16"/>
+      <c r="A77" s="16">
+        <v>76</v>
+      </c>
       <c r="B77" s="16"/>
       <c r="C77" s="12" t="s">
         <v>97</v>
@@ -4861,7 +5420,9 @@
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A78" s="16"/>
+      <c r="A78" s="16">
+        <v>77</v>
+      </c>
       <c r="B78" s="16"/>
       <c r="C78" s="12" t="s">
         <v>97</v>
@@ -4872,7 +5433,9 @@
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A79" s="16"/>
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
       <c r="B79" s="16"/>
       <c r="C79" s="12" t="s">
         <v>97</v>
@@ -4883,7 +5446,9 @@
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A80" s="16"/>
+      <c r="A80" s="16">
+        <v>79</v>
+      </c>
       <c r="B80" s="16"/>
       <c r="C80" s="12" t="s">
         <v>98</v>
@@ -4894,7 +5459,9 @@
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A81" s="16"/>
+      <c r="A81" s="16">
+        <v>80</v>
+      </c>
       <c r="B81" s="16"/>
       <c r="C81" s="12" t="s">
         <v>98</v>
@@ -4905,7 +5472,9 @@
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A82" s="16"/>
+      <c r="A82" s="16">
+        <v>81</v>
+      </c>
       <c r="B82" s="16"/>
       <c r="C82" s="12" t="s">
         <v>98</v>
@@ -4916,7 +5485,9 @@
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A83" s="16"/>
+      <c r="A83" s="16">
+        <v>82</v>
+      </c>
       <c r="B83" s="16"/>
       <c r="C83" s="12" t="s">
         <v>98</v>
@@ -4927,7 +5498,9 @@
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A84" s="16"/>
+      <c r="A84" s="16">
+        <v>83</v>
+      </c>
       <c r="B84" s="16"/>
       <c r="C84" s="12" t="s">
         <v>98</v>
@@ -4940,7 +5513,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A85" s="16"/>
+      <c r="A85" s="16">
+        <v>84</v>
+      </c>
       <c r="B85" s="16"/>
       <c r="C85" s="12" t="s">
         <v>98</v>
@@ -4953,7 +5528,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A86" s="16"/>
+      <c r="A86" s="16">
+        <v>85</v>
+      </c>
       <c r="B86" s="16"/>
       <c r="C86" s="12" t="s">
         <v>98</v>
@@ -4966,7 +5543,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A87" s="16"/>
+      <c r="A87" s="16">
+        <v>86</v>
+      </c>
       <c r="B87" s="16"/>
       <c r="C87" s="12" t="s">
         <v>98</v>
@@ -4979,7 +5558,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A88" s="16"/>
+      <c r="A88" s="16">
+        <v>87</v>
+      </c>
       <c r="B88" s="16"/>
       <c r="C88" s="12" t="s">
         <v>98</v>
@@ -4992,7 +5573,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A89" s="16"/>
+      <c r="A89" s="16">
+        <v>88</v>
+      </c>
       <c r="B89" s="16"/>
       <c r="C89" s="12" t="s">
         <v>98</v>
@@ -5005,7 +5588,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A90" s="16"/>
+      <c r="A90" s="16">
+        <v>89</v>
+      </c>
       <c r="B90" s="16"/>
       <c r="C90" s="12" t="s">
         <v>98</v>
@@ -5016,7 +5601,9 @@
       <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A91" s="16"/>
+      <c r="A91" s="16">
+        <v>90</v>
+      </c>
       <c r="B91" s="16"/>
       <c r="C91" s="12" t="s">
         <v>98</v>
@@ -5027,7 +5614,9 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A92" s="16"/>
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
       <c r="B92" s="16"/>
       <c r="C92" s="12" t="s">
         <v>98</v>
@@ -5038,7 +5627,9 @@
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A93" s="16"/>
+      <c r="A93" s="16">
+        <v>92</v>
+      </c>
       <c r="B93" s="16"/>
       <c r="C93" s="12" t="s">
         <v>99</v>
@@ -5049,7 +5640,9 @@
       <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A94" s="16"/>
+      <c r="A94" s="16">
+        <v>93</v>
+      </c>
       <c r="B94" s="16"/>
       <c r="C94" s="12" t="s">
         <v>99</v>
@@ -5060,7 +5653,9 @@
       <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A95" s="16"/>
+      <c r="A95" s="16">
+        <v>94</v>
+      </c>
       <c r="B95" s="16"/>
       <c r="C95" s="12" t="s">
         <v>99</v>
@@ -5071,7 +5666,9 @@
       <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A96" s="16"/>
+      <c r="A96" s="16">
+        <v>95</v>
+      </c>
       <c r="B96" s="16"/>
       <c r="C96" s="12" t="s">
         <v>99</v>
@@ -5082,7 +5679,9 @@
       <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A97" s="16"/>
+      <c r="A97" s="16">
+        <v>96</v>
+      </c>
       <c r="B97" s="16"/>
       <c r="C97" s="12" t="s">
         <v>99</v>
@@ -5093,7 +5692,9 @@
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A98" s="16"/>
+      <c r="A98" s="16">
+        <v>97</v>
+      </c>
       <c r="B98" s="16"/>
       <c r="C98" s="12" t="s">
         <v>99</v>
@@ -5104,7 +5705,9 @@
       <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A99" s="16"/>
+      <c r="A99" s="16">
+        <v>98</v>
+      </c>
       <c r="B99" s="16"/>
       <c r="C99" s="12" t="s">
         <v>99</v>
@@ -5117,7 +5720,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A100" s="16"/>
+      <c r="A100" s="16">
+        <v>99</v>
+      </c>
       <c r="B100" s="16"/>
       <c r="C100" s="12" t="s">
         <v>99</v>
@@ -5128,7 +5733,9 @@
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A101" s="16"/>
+      <c r="A101" s="16">
+        <v>100</v>
+      </c>
       <c r="B101" s="16"/>
       <c r="C101" s="12" t="s">
         <v>99</v>
@@ -5141,7 +5748,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A102" s="16"/>
+      <c r="A102" s="16">
+        <v>101</v>
+      </c>
       <c r="B102" s="16"/>
       <c r="C102" s="12" t="s">
         <v>99</v>
@@ -5152,7 +5761,9 @@
       <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A103" s="16"/>
+      <c r="A103" s="16">
+        <v>102</v>
+      </c>
       <c r="B103" s="16"/>
       <c r="C103" s="12" t="s">
         <v>99</v>
@@ -5163,7 +5774,9 @@
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A104" s="16"/>
+      <c r="A104" s="16">
+        <v>103</v>
+      </c>
       <c r="B104" s="16"/>
       <c r="C104" s="12" t="s">
         <v>99</v>
@@ -5174,7 +5787,9 @@
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A105" s="16"/>
+      <c r="A105" s="16">
+        <v>104</v>
+      </c>
       <c r="B105" s="16"/>
       <c r="C105" s="12" t="s">
         <v>99</v>
@@ -5185,7 +5800,9 @@
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A106" s="16"/>
+      <c r="A106" s="16">
+        <v>105</v>
+      </c>
       <c r="B106" s="16"/>
       <c r="C106" s="12" t="s">
         <v>99</v>
@@ -5196,7 +5813,9 @@
       <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A107" s="16"/>
+      <c r="A107" s="16">
+        <v>106</v>
+      </c>
       <c r="B107" s="16"/>
       <c r="C107" s="12" t="s">
         <v>337</v>
@@ -5207,7 +5826,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A108" s="16"/>
+      <c r="A108" s="16">
+        <v>107</v>
+      </c>
       <c r="B108" s="16"/>
       <c r="C108" s="12" t="s">
         <v>337</v>
@@ -5218,7 +5839,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A109" s="16"/>
+      <c r="A109" s="16">
+        <v>108</v>
+      </c>
       <c r="B109" s="16" t="s">
         <v>338</v>
       </c>
@@ -5231,7 +5854,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A110" s="16"/>
+      <c r="A110" s="16">
+        <v>109</v>
+      </c>
       <c r="B110" s="16" t="s">
         <v>338</v>
       </c>
@@ -5244,7 +5869,9 @@
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A111" s="16"/>
+      <c r="A111" s="16">
+        <v>110</v>
+      </c>
       <c r="B111" s="16" t="s">
         <v>338</v>
       </c>
@@ -5257,7 +5884,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A112" s="16"/>
+      <c r="A112" s="16">
+        <v>111</v>
+      </c>
       <c r="B112" s="16" t="s">
         <v>338</v>
       </c>
@@ -5270,7 +5899,9 @@
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A113" s="16"/>
+      <c r="A113" s="16">
+        <v>112</v>
+      </c>
       <c r="B113" s="16" t="s">
         <v>338</v>
       </c>
@@ -5283,7 +5914,9 @@
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A114" s="16"/>
+      <c r="A114" s="16">
+        <v>113</v>
+      </c>
       <c r="B114" s="16" t="s">
         <v>338</v>
       </c>
@@ -5296,7 +5929,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A115" s="16"/>
+      <c r="A115" s="16">
+        <v>114</v>
+      </c>
       <c r="B115" s="16" t="s">
         <v>338</v>
       </c>
@@ -5309,7 +5944,9 @@
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A116" s="16"/>
+      <c r="A116" s="16">
+        <v>115</v>
+      </c>
       <c r="B116" s="16" t="s">
         <v>338</v>
       </c>
@@ -5322,7 +5959,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A117" s="16"/>
+      <c r="A117" s="16">
+        <v>116</v>
+      </c>
       <c r="B117" s="16" t="s">
         <v>338</v>
       </c>
@@ -5335,7 +5974,9 @@
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A118" s="16"/>
+      <c r="A118" s="16">
+        <v>117</v>
+      </c>
       <c r="B118" s="16" t="s">
         <v>338</v>
       </c>
@@ -5350,7 +5991,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A119" s="16"/>
+      <c r="A119" s="16">
+        <v>118</v>
+      </c>
       <c r="B119" s="16" t="s">
         <v>338</v>
       </c>
@@ -5363,7 +6006,9 @@
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A120" s="16"/>
+      <c r="A120" s="16">
+        <v>119</v>
+      </c>
       <c r="B120" s="16" t="s">
         <v>338</v>
       </c>
@@ -5376,7 +6021,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A121" s="16"/>
+      <c r="A121" s="16">
+        <v>120</v>
+      </c>
       <c r="B121" s="16" t="s">
         <v>338</v>
       </c>
@@ -5389,7 +6036,9 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A122" s="16"/>
+      <c r="A122" s="16">
+        <v>121</v>
+      </c>
       <c r="B122" s="16" t="s">
         <v>338</v>
       </c>
@@ -5402,7 +6051,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A123" s="16"/>
+      <c r="A123" s="16">
+        <v>122</v>
+      </c>
       <c r="B123" s="16" t="s">
         <v>338</v>
       </c>
@@ -5415,7 +6066,9 @@
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A124" s="16"/>
+      <c r="A124" s="16">
+        <v>123</v>
+      </c>
       <c r="B124" s="16" t="s">
         <v>338</v>
       </c>
@@ -5428,7 +6081,9 @@
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A125" s="16"/>
+      <c r="A125" s="16">
+        <v>124</v>
+      </c>
       <c r="B125" s="16" t="s">
         <v>338</v>
       </c>
@@ -5441,7 +6096,9 @@
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A126" s="16"/>
+      <c r="A126" s="16">
+        <v>125</v>
+      </c>
       <c r="B126" s="16" t="s">
         <v>338</v>
       </c>
@@ -5456,7 +6113,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A127" s="16"/>
+      <c r="A127" s="16">
+        <v>126</v>
+      </c>
       <c r="B127" s="16" t="s">
         <v>338</v>
       </c>
@@ -5471,7 +6130,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A128" s="16"/>
+      <c r="A128" s="16">
+        <v>127</v>
+      </c>
       <c r="B128" s="16" t="s">
         <v>338</v>
       </c>
@@ -5486,7 +6147,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A129" s="16"/>
+      <c r="A129" s="16">
+        <v>128</v>
+      </c>
       <c r="B129" s="16" t="s">
         <v>338</v>
       </c>
@@ -5501,7 +6164,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A130" s="16"/>
+      <c r="A130" s="16">
+        <v>129</v>
+      </c>
       <c r="B130" s="16" t="s">
         <v>338</v>
       </c>
@@ -5516,7 +6181,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A131" s="16"/>
+      <c r="A131" s="16">
+        <v>130</v>
+      </c>
       <c r="B131" s="16" t="s">
         <v>338</v>
       </c>
@@ -5531,7 +6198,9 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A132" s="16"/>
+      <c r="A132" s="16">
+        <v>131</v>
+      </c>
       <c r="B132" s="16" t="s">
         <v>338</v>
       </c>
@@ -5546,7 +6215,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A133" s="16"/>
+      <c r="A133" s="16">
+        <v>132</v>
+      </c>
       <c r="B133" s="16" t="s">
         <v>338</v>
       </c>
@@ -5559,7 +6230,9 @@
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A134" s="16"/>
+      <c r="A134" s="16">
+        <v>133</v>
+      </c>
       <c r="B134" s="16" t="s">
         <v>338</v>
       </c>
@@ -5572,7 +6245,9 @@
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A135" s="16"/>
+      <c r="A135" s="16">
+        <v>134</v>
+      </c>
       <c r="B135" s="16" t="s">
         <v>338</v>
       </c>
@@ -5585,7 +6260,9 @@
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A136" s="16"/>
+      <c r="A136" s="16">
+        <v>135</v>
+      </c>
       <c r="B136" s="16" t="s">
         <v>338</v>
       </c>
@@ -5600,7 +6277,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A137" s="16"/>
+      <c r="A137" s="16">
+        <v>136</v>
+      </c>
       <c r="B137" s="16" t="s">
         <v>338</v>
       </c>
@@ -5613,7 +6292,9 @@
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A138" s="16"/>
+      <c r="A138" s="16">
+        <v>137</v>
+      </c>
       <c r="B138" s="16" t="s">
         <v>338</v>
       </c>
@@ -5626,7 +6307,9 @@
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A139" s="16"/>
+      <c r="A139" s="16">
+        <v>138</v>
+      </c>
       <c r="B139" s="16" t="s">
         <v>338</v>
       </c>
@@ -5639,7 +6322,9 @@
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A140" s="16"/>
+      <c r="A140" s="16">
+        <v>139</v>
+      </c>
       <c r="B140" s="16" t="s">
         <v>338</v>
       </c>
@@ -5652,7 +6337,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A141" s="16"/>
+      <c r="A141" s="16">
+        <v>140</v>
+      </c>
       <c r="B141" s="16" t="s">
         <v>338</v>
       </c>
@@ -5667,7 +6354,9 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A142" s="16"/>
+      <c r="A142" s="16">
+        <v>141</v>
+      </c>
       <c r="B142" s="16" t="s">
         <v>338</v>
       </c>
@@ -5680,7 +6369,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A143" s="16"/>
+      <c r="A143" s="16">
+        <v>142</v>
+      </c>
       <c r="B143" s="16" t="s">
         <v>338</v>
       </c>
@@ -5693,7 +6384,9 @@
       <c r="E143" s="10"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A144" s="16"/>
+      <c r="A144" s="16">
+        <v>143</v>
+      </c>
       <c r="B144" s="16" t="s">
         <v>338</v>
       </c>
@@ -5706,7 +6399,9 @@
       <c r="E144" s="10"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A145" s="16"/>
+      <c r="A145" s="16">
+        <v>144</v>
+      </c>
       <c r="B145" s="16" t="s">
         <v>338</v>
       </c>
@@ -5719,7 +6414,9 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A146" s="16"/>
+      <c r="A146" s="16">
+        <v>145</v>
+      </c>
       <c r="B146" s="16" t="s">
         <v>338</v>
       </c>
@@ -5732,7 +6429,9 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A147" s="16"/>
+      <c r="A147" s="16">
+        <v>146</v>
+      </c>
       <c r="B147" s="16" t="s">
         <v>338</v>
       </c>
@@ -5745,7 +6444,9 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A148" s="16"/>
+      <c r="A148" s="16">
+        <v>147</v>
+      </c>
       <c r="B148" s="16" t="s">
         <v>338</v>
       </c>
@@ -5758,7 +6459,9 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A149" s="16"/>
+      <c r="A149" s="16">
+        <v>148</v>
+      </c>
       <c r="B149" s="16" t="s">
         <v>338</v>
       </c>
@@ -5771,7 +6474,9 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A150" s="16"/>
+      <c r="A150" s="16">
+        <v>149</v>
+      </c>
       <c r="B150" s="16" t="s">
         <v>338</v>
       </c>
@@ -5784,7 +6489,9 @@
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A151" s="16"/>
+      <c r="A151" s="16">
+        <v>150</v>
+      </c>
       <c r="B151" s="16" t="s">
         <v>338</v>
       </c>
@@ -5797,7 +6504,9 @@
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A152" s="16"/>
+      <c r="A152" s="16">
+        <v>151</v>
+      </c>
       <c r="B152" s="16" t="s">
         <v>338</v>
       </c>
@@ -5810,7 +6519,9 @@
       <c r="E152" s="10"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A153" s="16"/>
+      <c r="A153" s="16">
+        <v>152</v>
+      </c>
       <c r="B153" s="16" t="s">
         <v>338</v>
       </c>
@@ -5823,7 +6534,9 @@
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A154" s="16"/>
+      <c r="A154" s="16">
+        <v>153</v>
+      </c>
       <c r="B154" s="16" t="s">
         <v>338</v>
       </c>
@@ -5835,23 +6548,27 @@
       </c>
       <c r="E154" s="10"/>
     </row>
-    <row r="155" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22" t="s">
+    <row r="155" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A155" s="16">
+        <v>154</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E155" s="24" t="s">
+      <c r="E155" s="23" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A156" s="16"/>
+      <c r="A156" s="16">
+        <v>155</v>
+      </c>
       <c r="B156" s="16" t="s">
         <v>338</v>
       </c>
@@ -5866,7 +6583,9 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A157" s="16"/>
+      <c r="A157" s="16">
+        <v>156</v>
+      </c>
       <c r="B157" s="16" t="s">
         <v>338</v>
       </c>
@@ -5879,6 +6598,1362 @@
       <c r="E157" s="9" t="s">
         <v>300</v>
       </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A158" s="35">
+        <v>1</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E158" s="32"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A159" s="36">
+        <v>2</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E159" s="32"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A160" s="35">
+        <v>3</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="E160" s="32"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A161" s="36">
+        <v>4</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="32"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A162" s="35">
+        <v>5</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E162" s="32"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A163" s="36">
+        <v>6</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E163" s="32"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A164" s="35">
+        <v>7</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E164" s="32"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A165" s="36">
+        <v>8</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E165" s="32"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A166" s="35">
+        <v>9</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="E166" s="32"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A167" s="36">
+        <v>10</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E167" s="32"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A168" s="35">
+        <v>11</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E168" s="32"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A169" s="36">
+        <v>12</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E169" s="32"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A170" s="35">
+        <v>13</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E170" s="32"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A171" s="36">
+        <v>14</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E171" s="32"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A172" s="35">
+        <v>15</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="32"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A173" s="36">
+        <v>16</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E173" s="32"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A174" s="35">
+        <v>17</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E174" s="32"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A175" s="36">
+        <v>18</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E175" s="32"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A176" s="35">
+        <v>19</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="32"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A177" s="36">
+        <v>20</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E177" s="32"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A178" s="35">
+        <v>21</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E178" s="32"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A179" s="36">
+        <v>22</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E179" s="32"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A180" s="35">
+        <v>23</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A181" s="36">
+        <v>24</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" s="32"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A182" s="35">
+        <v>25</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E182" s="32"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A183" s="36">
+        <v>26</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" s="32"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A184" s="35">
+        <v>27</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E184" s="32"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A185" s="36">
+        <v>28</v>
+      </c>
+      <c r="C185" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" s="32"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A186" s="35">
+        <v>29</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E186" s="32"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A187" s="36">
+        <v>30</v>
+      </c>
+      <c r="C187" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D187" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E187" s="32"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A188" s="35">
+        <v>31</v>
+      </c>
+      <c r="C188" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D188" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E188" s="32"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A189" s="36">
+        <v>32</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D189" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E189" s="32"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A190" s="35">
+        <v>33</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D190" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E190" s="32"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A191" s="36">
+        <v>34</v>
+      </c>
+      <c r="C191" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D191" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E191" s="32"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A192" s="35">
+        <v>35</v>
+      </c>
+      <c r="C192" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D192" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" s="32"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A193" s="36">
+        <v>36</v>
+      </c>
+      <c r="C193" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E193" s="32"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A194" s="35">
+        <v>37</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E194" s="32"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A195" s="36">
+        <v>38</v>
+      </c>
+      <c r="C195" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="E195" s="32"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A196" s="35">
+        <v>39</v>
+      </c>
+      <c r="C196" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E196" s="32"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A197" s="36">
+        <v>40</v>
+      </c>
+      <c r="C197" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E197" s="32"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A198" s="35">
+        <v>41</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E198" s="32"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A199" s="36">
+        <v>42</v>
+      </c>
+      <c r="C199" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" s="32"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A200" s="35">
+        <v>43</v>
+      </c>
+      <c r="C200" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="E200" s="32"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A201" s="36">
+        <v>44</v>
+      </c>
+      <c r="C201" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="E201" s="32"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A202" s="35">
+        <v>45</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E202" s="32"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A203" s="36">
+        <v>46</v>
+      </c>
+      <c r="C203" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D203" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E203" s="32"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A204" s="35">
+        <v>47</v>
+      </c>
+      <c r="C204" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D204" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E204" s="32"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A205" s="36">
+        <v>48</v>
+      </c>
+      <c r="C205" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D205" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E205" s="32"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A206" s="35">
+        <v>49</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="E206" s="32"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A207" s="36">
+        <v>50</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D207" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E207" s="32"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A208" s="35">
+        <v>51</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E208" s="32"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A209" s="36">
+        <v>52</v>
+      </c>
+      <c r="C209" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D209" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E209" s="32"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A210" s="35">
+        <v>53</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D210" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E210" s="32"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A211" s="36">
+        <v>54</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D211" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E211" s="32"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A212" s="35">
+        <v>55</v>
+      </c>
+      <c r="C212" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D212" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E212" s="32"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A213" s="36">
+        <v>56</v>
+      </c>
+      <c r="C213" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D213" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E213" s="32"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A214" s="35">
+        <v>57</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D214" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E214" s="32"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A215" s="36">
+        <v>58</v>
+      </c>
+      <c r="C215" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D215" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E215" s="32"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A216" s="35">
+        <v>59</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D216" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E216" s="32"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A217" s="36">
+        <v>60</v>
+      </c>
+      <c r="C217" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="E217" s="32"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A218" s="35">
+        <v>61</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D218" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E218" s="32"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A219" s="36">
+        <v>62</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D219" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E219" s="32"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A220" s="35">
+        <v>63</v>
+      </c>
+      <c r="C220" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D220" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="E220" s="32"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A221" s="36">
+        <v>64</v>
+      </c>
+      <c r="C221" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D221" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E221" s="32"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A222" s="35">
+        <v>65</v>
+      </c>
+      <c r="C222" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D222" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E222" s="32"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A223" s="36">
+        <v>66</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D223" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E223" s="32"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A224" s="35">
+        <v>67</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D224" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E224" s="32"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A225" s="36">
+        <v>68</v>
+      </c>
+      <c r="C225" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D225" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E225" s="32"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A226" s="35">
+        <v>69</v>
+      </c>
+      <c r="C226" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E226" s="32"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A227" s="36">
+        <v>70</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D227" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="E227" s="32"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A228" s="35">
+        <v>71</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E228" s="32"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A229" s="36">
+        <v>72</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D229" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E229" s="32"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A230" s="35">
+        <v>73</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="E230" s="32"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A231" s="36">
+        <v>74</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E231" s="32"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A232" s="35">
+        <v>75</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="E232" s="32"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A233" s="36">
+        <v>76</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D233" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E233" s="32"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A234" s="35">
+        <v>77</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D234" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E234" s="32"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A235" s="36">
+        <v>78</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D235" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E235" s="32"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A236" s="35">
+        <v>79</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E236" s="32"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A237" s="36">
+        <v>80</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D237" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E237" s="32"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A238" s="35">
+        <v>81</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D238" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E238" s="32"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A239" s="36">
+        <v>82</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D239" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="E239" s="32"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A240" s="35">
+        <v>83</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D240" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="E240" s="32"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A241" s="36">
+        <v>84</v>
+      </c>
+      <c r="C241" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D241" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E241" s="32"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A242" s="35">
+        <v>85</v>
+      </c>
+      <c r="C242" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D242" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="E242" s="32"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A243" s="36">
+        <v>86</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D243" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E243" s="32"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A244" s="35">
+        <v>87</v>
+      </c>
+      <c r="C244" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D244" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E244" s="32"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A245" s="36">
+        <v>88</v>
+      </c>
+      <c r="C245" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D245" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E245" s="32"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A246" s="35">
+        <v>89</v>
+      </c>
+      <c r="C246" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D246" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E246" s="32"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A247" s="36">
+        <v>90</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D247" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="E247" s="32"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A248" s="35">
+        <v>91</v>
+      </c>
+      <c r="C248" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D248" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E248" s="32"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A249" s="36">
+        <v>92</v>
+      </c>
+      <c r="C249" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D249" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E249" s="32"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A250" s="35">
+        <v>93</v>
+      </c>
+      <c r="C250" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D250" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="E250" s="32"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A251" s="36">
+        <v>94</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D251" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="E251" s="32"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A252" s="35">
+        <v>95</v>
+      </c>
+      <c r="C252" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E252" s="32"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A253" s="36">
+        <v>96</v>
+      </c>
+      <c r="C253" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D253" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E253" s="32"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A254" s="35">
+        <v>97</v>
+      </c>
+      <c r="C254" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D254" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E254" s="32"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A255" s="36">
+        <v>98</v>
+      </c>
+      <c r="C255" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D255" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E255" s="32"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A256" s="35">
+        <v>99</v>
+      </c>
+      <c r="C256" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D256" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E256" s="32"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A257" s="36">
+        <v>100</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E257" s="32"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A258" s="35">
+        <v>101</v>
+      </c>
+      <c r="C258" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D258" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E258" s="32"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A259" s="36">
+        <v>102</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D259" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="E259" s="32"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A260" s="35">
+        <v>103</v>
+      </c>
+      <c r="C260" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D260" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="E260" s="32"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A261" s="36">
+        <v>104</v>
+      </c>
+      <c r="C261" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D261" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="E261" s="32"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A262" s="35">
+        <v>105</v>
+      </c>
+      <c r="C262" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D262" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E262" s="32"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A263" s="36">
+        <v>106</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="E263" s="32"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A264" s="35">
+        <v>107</v>
+      </c>
+      <c r="C264" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D264" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="E264" s="32"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A265" s="36">
+        <v>108</v>
+      </c>
+      <c r="C265" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E265" s="32"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A266" s="35">
+        <v>109</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D266" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="E266" s="32"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A267" s="36">
+        <v>110</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D267" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="E267" s="32"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A268" s="35">
+        <v>111</v>
+      </c>
+      <c r="C268" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D268" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E268" s="32"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A269" s="36">
+        <v>112</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D269" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="E269" s="32"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A270" s="35">
+        <v>113</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D270" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="E270" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{75292836-BA28-40FB-A0A8-F0C8E4157E60}"/>
@@ -6069,9 +8144,122 @@
     <hyperlink ref="E155" r:id="rId184" display="http://www.sanfoundry.com/cpp-program-check-whether-graph-dag/" xr:uid="{612E791B-7048-474E-AC52-84460D752C11}"/>
     <hyperlink ref="E156" r:id="rId185" display="http://www.sanfoundry.com/cpp-program-find-good-feedback-edge-set-graph/" xr:uid="{1B3D268B-FC3B-4485-A5A1-DC4024C1B2F4}"/>
     <hyperlink ref="E157" r:id="rId186" display="http://www.sanfoundry.com/cpp-program-find-good-feedback-vertex-set/" xr:uid="{4D80AEC7-71E2-4033-9E31-B93DC76C213D}"/>
+    <hyperlink ref="D158" r:id="rId187" display="https://www.geeksforgeeks.org/graph-and-its-representations/" xr:uid="{B0B10BA1-BC6C-4022-879E-5034DA40D041}"/>
+    <hyperlink ref="D159" r:id="rId188" display="https://www.geeksforgeeks.org/breadth-first-traversal-for-a-graph/" xr:uid="{111711F3-978A-4DA9-9BA1-08E4EF44862C}"/>
+    <hyperlink ref="D160" r:id="rId189" display="https://www.geeksforgeeks.org/depth-first-traversal-for-a-graph/" xr:uid="{0F1FC454-6043-4A8C-BC7B-07F9E053022D}"/>
+    <hyperlink ref="D161" r:id="rId190" display="https://www.geeksforgeeks.org/applications-of-depth-first-search/" xr:uid="{CE05867B-5AA8-44C8-B253-054102011213}"/>
+    <hyperlink ref="D162" r:id="rId191" display="https://www.geeksforgeeks.org/applications-of-breadth-first-traversal/" xr:uid="{D865F2B9-4BDD-48AC-8D9C-A1BC35F577A2}"/>
+    <hyperlink ref="D163" r:id="rId192" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{2A3855CB-C948-44A2-BE3E-40DE93FBEA7E}"/>
+    <hyperlink ref="D164" r:id="rId193" display="https://www.geeksforgeeks.org/find-a-mother-vertex-in-a-graph/" xr:uid="{4C893E33-029D-410F-B545-CF1CE1C8EA9C}"/>
+    <hyperlink ref="D165" r:id="rId194" display="https://www.geeksforgeeks.org/transitive-closure-of-a-graph-using-dfs/" xr:uid="{ECB3C1FC-F400-4638-84FA-7DA73A22F6B2}"/>
+    <hyperlink ref="D166" r:id="rId195" display="https://www.geeksforgeeks.org/find-k-cores-graph/" xr:uid="{BF9DB391-1DC5-497A-8F69-F597B802FEA0}"/>
+    <hyperlink ref="D167" r:id="rId196" display="https://www.geeksforgeeks.org/iterative-depth-first-traversal/" xr:uid="{C7D0CF74-63E4-42CC-8A94-B4BDEA467210}"/>
+    <hyperlink ref="D168" r:id="rId197" display="https://www.geeksforgeeks.org/count-number-nodes-given-level-using-bfs/" xr:uid="{11E2C2F0-2D0E-4EA0-AD98-B20C913B446E}"/>
+    <hyperlink ref="D169" r:id="rId198" display="https://www.geeksforgeeks.org/count-possible-paths-two-vertices/" xr:uid="{512426C7-291F-466D-857F-F1E412968481}"/>
+    <hyperlink ref="D170" r:id="rId199" display="https://www.geeksforgeeks.org/minimum-initial-vertices-traverse-whole-matrix-given-conditions/" xr:uid="{DEB330C6-F4A9-4879-B7A8-DCC49667146C}"/>
+    <hyperlink ref="D171" r:id="rId200" display="https://www.geeksforgeeks.org/shortest-path-reach-one-prime-changing-single-digit-time/" xr:uid="{310CB2B5-A7AE-4C0C-9A4B-33862497A1F7}"/>
+    <hyperlink ref="D172" r:id="rId201" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{8A19AC55-0A4E-447E-9C65-73FB82DC34EA}"/>
+    <hyperlink ref="D173" r:id="rId202" display="https://www.geeksforgeeks.org/magical-indices-array/" xr:uid="{7D979E1B-FA1B-41B8-8CC4-B266797133AB}"/>
+    <hyperlink ref="D174" r:id="rId203" display="https://www.geeksforgeeks.org/count-number-trees-forest/" xr:uid="{BCC86888-3D65-459B-97AC-CE2AAB8501C0}"/>
+    <hyperlink ref="D175" r:id="rId204" display="https://www.geeksforgeeks.org/bfs-using-vectors-queue-per-algorithm-clrs/" xr:uid="{7CC9DF26-7D39-4891-8906-94683088D82E}"/>
+    <hyperlink ref="D176" r:id="rId205" display="https://www.geeksforgeeks.org/level-node-tree-source-node-using-bfs/" xr:uid="{EE3F0138-00E7-452C-8775-9FB9A7DF0FB4}"/>
+    <hyperlink ref="D177" r:id="rId206" display="https://www.geeksforgeeks.org/construct-binary-palindrome-by-repeated-appending-and-trimming/" xr:uid="{828A37C7-EEEE-41E0-8624-71251CC8C8C7}"/>
+    <hyperlink ref="D178" r:id="rId207" tooltip="Permalink to Iterative Deepening Search(IDS) or Iterative Deepening Depth First Search(IDDFS)" display="https://www.geeksforgeeks.org/iterative-deepening-searchids-iterative-deepening-depth-first-searchiddfs/" xr:uid="{02FA5C07-2D92-48C4-A1D7-6D4B8E7B7EE0}"/>
+    <hyperlink ref="D179" r:id="rId208" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{00EB8EBA-123D-4C50-9A7F-572200E997A0}"/>
+    <hyperlink ref="D180" r:id="rId209" display="https://www.geeksforgeeks.org/union-find/" xr:uid="{CDC64930-F99F-40D2-BD1C-C08E942E7B18}"/>
+    <hyperlink ref="D181" r:id="rId210" display="https://www.geeksforgeeks.org/detect-cycle-undirected-graph/" xr:uid="{A9C6A536-E03A-415A-A909-B6BFA562D9D8}"/>
+    <hyperlink ref="D182" r:id="rId211" display="https://www.geeksforgeeks.org/detect-cycle-direct-graph-using-colors/" xr:uid="{FDDC7C79-B772-478C-ABB5-CB1B7BD9D341}"/>
+    <hyperlink ref="D183" r:id="rId212" display="https://www.geeksforgeeks.org/assign-directions-to-edges-so-that-the-directed-graph-remains-acyclic/" xr:uid="{DBFC22E6-5640-4A89-A2AC-3C7D76F1ACA2}"/>
+    <hyperlink ref="D184" r:id="rId213" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{23BB3A19-E0F4-4BDE-9672-819EB8A31368}"/>
+    <hyperlink ref="D185" r:id="rId214" display="https://www.geeksforgeeks.org/topological-sorting/" xr:uid="{189A6D81-4DF1-4C11-BA35-5137851B577E}"/>
+    <hyperlink ref="D186" r:id="rId215" display="https://www.geeksforgeeks.org/all-topological-sorts-of-a-directed-acyclic-graph/" xr:uid="{92D96B89-98A7-4AE4-81D3-DC1B840D81B2}"/>
+    <hyperlink ref="D187" r:id="rId216" display="https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/" xr:uid="{0060A8F8-8E19-4A48-B21C-65F8D2F030D6}"/>
+    <hyperlink ref="D188" r:id="rId217" display="https://www.geeksforgeeks.org/greedy-algorithms-set-5-prims-minimum-spanning-tree-mst-2/" xr:uid="{65E8B523-E8E4-41B6-9B39-22FBFFECD646}"/>
+    <hyperlink ref="D189" r:id="rId218" display="https://www.geeksforgeeks.org/applications-of-minimum-spanning-tree/" xr:uid="{07B84A1C-6AA2-495A-8B2D-62958DA82D31}"/>
+    <hyperlink ref="D190" r:id="rId219" display="https://www.geeksforgeeks.org/greedy-algorithms-set-5-prims-mst-for-adjacency-list-representation/" xr:uid="{D3D432B5-0BBB-4C3F-BECA-FEC2450F3AE1}"/>
+    <hyperlink ref="D191" r:id="rId220" display="https://www.geeksforgeeks.org/greedy-algorithms-set-2-kruskals-minimum-spanning-tree-mst/" xr:uid="{61E12970-7FF4-428B-AB66-C4B91A97E75F}"/>
+    <hyperlink ref="D192" r:id="rId221" display="https://www.geeksforgeeks.org/greedy-algorithms-set-9-boruvkas-algorithm/" xr:uid="{17C1B281-3006-4510-8D0B-8D4861DCFB11}"/>
+    <hyperlink ref="D193" r:id="rId222" display="https://www.geeksforgeeks.org/minimum-cost-connect-cities/" xr:uid="{EA909EDA-C1AB-4079-91E1-BCD74600D086}"/>
+    <hyperlink ref="D194" r:id="rId223" display="https://www.geeksforgeeks.org/steiner-tree/" xr:uid="{91BB5D90-6599-42E7-9A83-2D84EBE0F494}"/>
+    <hyperlink ref="D195" r:id="rId224" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{8AF56774-C3AD-4982-A1A2-157ECF6A9BA9}"/>
+    <hyperlink ref="D196" r:id="rId225" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{078C7442-8A03-4E63-9EE6-DF9A1546DE9B}"/>
+    <hyperlink ref="D197" r:id="rId226" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{F9F90CAD-C40B-4725-8745-D2E0820289F2}"/>
+    <hyperlink ref="D198" r:id="rId227" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{16C3352D-7B1E-4754-B808-AF6ADB950C0B}"/>
+    <hyperlink ref="D199" r:id="rId228" display="https://www.geeksforgeeks.org/backtracking-set-3-n-queen-problem/" xr:uid="{5043B5D0-7EB1-4887-A559-5154C07FAA81}"/>
+    <hyperlink ref="D200" r:id="rId229" display="https://www.geeksforgeeks.org/backttracking-set-5-m-coloring-problem/" xr:uid="{E738582A-80E8-4534-88C3-26D6E914B0EE}"/>
+    <hyperlink ref="D201" r:id="rId230" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{F18FE74E-3D08-447E-8DC8-4E348A2CB658}"/>
+    <hyperlink ref="D202" r:id="rId231" display="https://www.geeksforgeeks.org/greedy-algorithms-set-6-dijkstras-shortest-path-algorithm/" xr:uid="{A6FC9101-37FD-4BD6-BA41-03CDC7A285A3}"/>
+    <hyperlink ref="D203" r:id="rId232" display="https://www.geeksforgeeks.org/greedy-algorithms-set-7-dijkstras-algorithm-for-adjacency-list-representation/" xr:uid="{3000FABB-1A51-47AA-B20C-CB2DFA3E2BFE}"/>
+    <hyperlink ref="D204" r:id="rId233" display="https://www.geeksforgeeks.org/dynamic-programming-set-23-bellman-ford-algorithm/" xr:uid="{C996946B-9AED-430F-966C-0F975A0FC7F3}"/>
+    <hyperlink ref="D205" r:id="rId234" display="https://www.geeksforgeeks.org/dynamic-programming-set-16-floyd-warshall-algorithm/" xr:uid="{A01E3625-4F34-4789-83FF-FC2D9FC67117}"/>
+    <hyperlink ref="D206" r:id="rId235" display="https://www.geeksforgeeks.org/johnsons-algorithm/" xr:uid="{12B236F8-2459-4C51-9447-24E21990626E}"/>
+    <hyperlink ref="D207" r:id="rId236" display="https://www.geeksforgeeks.org/shortest-path-for-directed-acyclic-graphs/" xr:uid="{C3BF06EE-B680-45F4-90A6-70F432D2D9DF}"/>
+    <hyperlink ref="D208" r:id="rId237" display="https://www.geeksforgeeks.org/interesting-shortest-path-questions-set-1/" xr:uid="{42FFEC14-6862-4196-9086-B19B9EC5C32E}"/>
+    <hyperlink ref="D209" r:id="rId238" display="https://www.geeksforgeeks.org/shortest-path-exactly-k-edges-directed-weighted-graph/" xr:uid="{F1EB6A98-42AB-40D8-A591-9C3FF5E42BEC}"/>
+    <hyperlink ref="D210" r:id="rId239" display="https://www.geeksforgeeks.org/dials-algorithm-optimized-dijkstra-for-small-range-weights/" xr:uid="{0A7025A4-9198-4C55-B713-20E4C7092C2F}"/>
+    <hyperlink ref="D211" r:id="rId240" display="https://www.geeksforgeeks.org/printing-paths-dijkstras-shortest-path-algorithm/" xr:uid="{ACC9DEFD-BDC2-482A-873B-8887622A4599}"/>
+    <hyperlink ref="D212" r:id="rId241" display="https://www.geeksforgeeks.org/shortest-path-weighted-graph-weight-edge-1-2/" xr:uid="{85A23B63-BE82-416E-9BB0-CAA3F27CCB8D}"/>
+    <hyperlink ref="D213" r:id="rId242" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-between-two-vertices-in-a-given-graph/" xr:uid="{1E543410-99AA-41B1-AB99-11804980AAB1}"/>
+    <hyperlink ref="D214" r:id="rId243" display="https://www.geeksforgeeks.org/connectivity-in-a-directed-graph/" xr:uid="{1D7675CE-9321-46D1-B442-2F432F24347A}"/>
+    <hyperlink ref="D215" r:id="rId244" display="https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/" xr:uid="{FF79C50B-D4EE-4D93-B170-5A4E4CB045E4}"/>
+    <hyperlink ref="D216" r:id="rId245" display="https://www.geeksforgeeks.org/biconnectivity-in-a-graph/" xr:uid="{A29D711E-A5F7-4DDF-B2AD-B5B9772EA5C8}"/>
+    <hyperlink ref="D217" r:id="rId246" display="https://www.geeksforgeeks.org/bridge-in-a-graph/" xr:uid="{7ECED2E4-0664-4635-A2E0-1FB0E417260D}"/>
+    <hyperlink ref="D218" r:id="rId247" display="https://www.geeksforgeeks.org/eulerian-path-and-circuit/" xr:uid="{4F07C09D-AB26-4F6B-B4B3-796B3DB1FC78}"/>
+    <hyperlink ref="D219" r:id="rId248" display="https://www.geeksforgeeks.org/fleurys-algorithm-for-printing-eulerian-path/" xr:uid="{46110213-EA37-4FCB-82C6-5C74E9102BD4}"/>
+    <hyperlink ref="D220" r:id="rId249" display="https://www.geeksforgeeks.org/strongly-connected-components/" xr:uid="{06209D1E-C708-4108-A9CB-F0FA9E2E3F09}"/>
+    <hyperlink ref="D221" r:id="rId250" display="https://www.geeksforgeeks.org/transitive-closure-of-a-graph/" xr:uid="{586A5EE9-7600-47C2-B701-E259F8DCE6A6}"/>
+    <hyperlink ref="D222" r:id="rId251" display="https://www.geeksforgeeks.org/find-number-of-islands/" xr:uid="{B84EB830-70E8-4776-B2E7-F9F5BBAD7FCF}"/>
+    <hyperlink ref="D223" r:id="rId252" display="https://www.geeksforgeeks.org/count-possible-paths-source-destination-exactly-k-edges/" xr:uid="{9FD9BC81-3027-42B7-9AB0-21FE4A192042}"/>
+    <hyperlink ref="D224" r:id="rId253" display="https://www.geeksforgeeks.org/euler-circuit-directed-graph/" xr:uid="{75EDB56E-9120-444F-9CA8-480B56FE22A6}"/>
+    <hyperlink ref="D225" r:id="rId254" display="https://www.geeksforgeeks.org/biconnected-components/" xr:uid="{7DABCB3C-1155-40FB-B529-A1D3010BAB3B}"/>
+    <hyperlink ref="D226" r:id="rId255" display="https://www.geeksforgeeks.org/count-number-non-reachable-nodes/" xr:uid="{14F7DA53-460F-4C0A-A31B-8B08D094EA33}"/>
+    <hyperlink ref="D227" r:id="rId256" display="https://www.geeksforgeeks.org/find-degree-particular-vertex-graph/" xr:uid="{AB4AA45B-7955-47B7-A29C-46F28BAF5720}"/>
+    <hyperlink ref="D228" r:id="rId257" display="http://geeksquiz.com/check-given-graph-tree/" xr:uid="{F8A5ADC2-A047-4760-AE10-5F088C5350A8}"/>
+    <hyperlink ref="D229" r:id="rId258" display="https://www.geeksforgeeks.org/kargers-algorithm-for-minimum-cut-set-1-introduction-and-implementation/" xr:uid="{61D30293-057C-4FC6-9311-84016DEC933B}"/>
+    <hyperlink ref="D230" r:id="rId259" display="https://www.geeksforgeeks.org/eulerian-path-undirected-graph/" xr:uid="{0627794F-1BCA-49FB-85DB-6B2E449FC949}"/>
+    <hyperlink ref="D231" r:id="rId260" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{91CB53B0-BD45-4B88-9ADF-D3D0347224A7}"/>
+    <hyperlink ref="D232" r:id="rId261" display="https://www.geeksforgeeks.org/length-of-shortest-chain-to-reach-a-target-word/" xr:uid="{8F997DBE-9AC3-4402-B9FF-4CB814AEAD49}"/>
+    <hyperlink ref="D233" r:id="rId262" display="https://www.geeksforgeeks.org/find-paths-given-source-destination/" xr:uid="{B7CBB965-B7D7-45EB-9C0B-51A8EC3454D6}"/>
+    <hyperlink ref="D234" r:id="rId263" display="https://www.geeksforgeeks.org/find-the-minimum-cost-to-reach-a-destination-where-every-station-is-connected-in-one-direction/" xr:uid="{DE902299-C265-4DD8-8B1D-6736EBB5051E}"/>
+    <hyperlink ref="D235" r:id="rId264" display="https://www.geeksforgeeks.org/tarjan-algorithm-find-strongly-connected-components/" xr:uid="{1352045A-DB25-4CE3-838B-967DF1E84EDB}"/>
+    <hyperlink ref="D236" r:id="rId265" display="https://www.geeksforgeeks.org/graph-coloring-applications/" xr:uid="{0DEF33D0-0850-4239-B9B3-F1A5468B76A0}"/>
+    <hyperlink ref="D237" r:id="rId266" display="https://www.geeksforgeeks.org/graph-coloring-set-2-greedy-algorithm/" xr:uid="{8D565A03-8003-4DAE-BA88-E2BA16F5259C}"/>
+    <hyperlink ref="D238" r:id="rId267" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{BC167557-815A-4531-A6FF-33C0E7CE8AF7}"/>
+    <hyperlink ref="D239" r:id="rId268" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-2-approximate-using-mst/" xr:uid="{A540A07E-6F72-40A9-9BEA-1EB8A42F3F32}"/>
+    <hyperlink ref="D240" r:id="rId269" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{09818BDD-478B-41CE-BA82-D2705C228ACB}"/>
+    <hyperlink ref="D241" r:id="rId270" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{A1513B58-435E-4115-869F-44D5A2D7D235}"/>
+    <hyperlink ref="D242" r:id="rId271" display="https://www.geeksforgeeks.org/k-centers-problem-set-1-greedy-approximate-algorithm/" xr:uid="{32D5AE06-F85B-4450-9559-98162CAFC381}"/>
+    <hyperlink ref="D243" r:id="rId272" display="https://www.geeksforgeeks.org/ford-fulkerson-algorithm-for-maximum-flow-problem/" xr:uid="{AF4762F4-34EA-402B-A274-2265DD5C6B16}"/>
+    <hyperlink ref="D244" r:id="rId273" display="https://www.geeksforgeeks.org/find-edge-disjoint-paths-two-vertices/" xr:uid="{0035AE19-9DB0-462B-A38F-A1B4FA6215CB}"/>
+    <hyperlink ref="D245" r:id="rId274" display="https://www.geeksforgeeks.org/minimum-cut-in-a-directed-graph/" xr:uid="{4490CB03-9EDE-410A-9846-54185988E6DC}"/>
+    <hyperlink ref="D246" r:id="rId275" display="https://www.geeksforgeeks.org/maximum-bipartite-matching/" xr:uid="{5F3251D0-605D-493B-A90D-C7FFE0E5E5C8}"/>
+    <hyperlink ref="D247" r:id="rId276" display="https://www.geeksforgeeks.org/channel-assignment-problem/" xr:uid="{31C1B8AB-D47C-42B6-9F8E-412ADC268A38}"/>
+    <hyperlink ref="D248" r:id="rId277" display="https://www.geeksforgeeks.org/push-relabel-algorithm-set-1-introduction-and-illustration/" xr:uid="{7406DBD8-51C9-4B38-8000-89B6038C2C69}"/>
+    <hyperlink ref="D249" r:id="rId278" display="https://www.geeksforgeeks.org/push-relabel-algorithm-set-2-implementation/" xr:uid="{D09F81BF-84CC-43B8-B2A4-639AFC50A082}"/>
+    <hyperlink ref="D250" r:id="rId279" display="https://www.geeksforgeeks.org/kargers-algorithm-for-minimum-cut-set-1-introduction-and-implementation/" xr:uid="{5CA7E840-9538-4B43-A7D0-DF629051814D}"/>
+    <hyperlink ref="D251" r:id="rId280" display="https://www.geeksforgeeks.org/kargers-algorithm-for-minimum-cut-set-2-analysis-and-applications/" xr:uid="{EF6F7F1E-950B-4E93-8ECC-2660D1BFAD8F}"/>
+    <hyperlink ref="D252" r:id="rId281" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-using-stl-in-c/" xr:uid="{58334BDB-A2DA-4018-B5AE-9AC23F550546}"/>
+    <hyperlink ref="D253" r:id="rId282" display="https://www.geeksforgeeks.org/prims-algorithm-using-priority_queue-stl/" xr:uid="{2361F28A-7242-4DB5-9974-7377EE2C0FD8}"/>
+    <hyperlink ref="D254" r:id="rId283" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-using-priority_queue-stl/" xr:uid="{49CBED6B-284D-4E76-B8C2-DA0392CDA64C}"/>
+    <hyperlink ref="D255" r:id="rId284" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-using-set-in-stl/" xr:uid="{6456F33F-77FE-41CB-9E97-260D67269A49}"/>
+    <hyperlink ref="D256" r:id="rId285" display="https://www.geeksforgeeks.org/number-of-triangles-in-a-undirected-graph/" xr:uid="{43BA3BBF-1004-486C-BBAD-6F36693A9253}"/>
+    <hyperlink ref="D257" r:id="rId286" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{E868459D-BC93-43D2-A975-7B547C6460C2}"/>
+    <hyperlink ref="D258" r:id="rId287" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{4AD78279-6657-436A-808D-2EAF49ACAF55}"/>
+    <hyperlink ref="D259" r:id="rId288" display="https://www.geeksforgeeks.org/snake-ladder-problem-2/" xr:uid="{FD234B7A-A37B-4389-88C0-819E1A3C2638}"/>
+    <hyperlink ref="D260" r:id="rId289" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{1B3FE8CB-1CB9-40F4-94E9-7748E7693447}"/>
+    <hyperlink ref="D261" r:id="rId290" display="https://www.geeksforgeeks.org/boggle-find-possible-words-board-characters/" xr:uid="{2EAF2234-9614-4C07-BF44-910E857F95C5}"/>
+    <hyperlink ref="D262" r:id="rId291" display="https://www.geeksforgeeks.org/hopcroft-karp-algorithm-for-maximum-matching-set-1-introduction/" xr:uid="{072906E0-CBAD-426B-9EB9-5FFB9CAAB47D}"/>
+    <hyperlink ref="D263" r:id="rId292" display="https://www.geeksforgeeks.org/hopcroft-karp-algorithm-for-maximum-matching-set-2-implementation/" xr:uid="{07DC5BD8-CF66-4001-82F4-817927024E2E}"/>
+    <hyperlink ref="D264" r:id="rId293" display="https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/" xr:uid="{668F1BFA-354F-435D-B4D7-AF139E54A4ED}"/>
+    <hyperlink ref="D265" r:id="rId294" display="https://www.geeksforgeeks.org/construct-binary-palindrome-by-repeated-appending-and-trimming/" xr:uid="{61A407B2-76A4-4549-AC03-BA9D0774C2C7}"/>
+    <hyperlink ref="D266" r:id="rId295" display="https://www.geeksforgeeks.org/find-same-contacts-in-a-list-of-contacts/" xr:uid="{0D5C6F1F-DA03-4436-B292-48A31BA82205}"/>
+    <hyperlink ref="D267" r:id="rId296" display="https://www.geeksforgeeks.org/hypercube-graph/" xr:uid="{EDCBBCD7-85F2-48C1-A61B-F1703B55C033}"/>
+    <hyperlink ref="D268" r:id="rId297" display="https://www.geeksforgeeks.org/check-star-graph/" xr:uid="{C367E6DE-1014-40E3-A760-251BF56DEDB4}"/>
+    <hyperlink ref="D269" r:id="rId298" display="https://www.geeksforgeeks.org/optimal-read-list-given-number-days/" xr:uid="{EC4B2E76-200F-4046-A0D5-376D9F216240}"/>
+    <hyperlink ref="D270" r:id="rId299" display="https://www.geeksforgeeks.org/print-all-jumping-numbers-smaller-than-or-equal-to-a-given-value/" xr:uid="{1FFAFDC0-59D8-41E9-8FD5-D138262F9E9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId187"/>
+  <pageSetup orientation="portrait" r:id="rId300"/>
 </worksheet>
 </file>
 
@@ -6080,7 +8268,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C2" activeCellId="1" sqref="C62 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
